--- a/3_Component_Results/GDP/Tables/naive_tbl/AVERAGE_1_9_qoq_forecast_error_table_first_eval.xlsx
+++ b/3_Component_Results/GDP/Tables/naive_tbl/AVERAGE_1_9_qoq_forecast_error_table_first_eval.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>ME</t>
   </si>
@@ -56,6 +56,9 @@
   </si>
   <si>
     <t>Q7</t>
+  </si>
+  <si>
+    <t>Q8</t>
   </si>
 </sst>
 </file>
@@ -413,7 +416,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -444,19 +447,19 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>0.02638114373498337</v>
+        <v>0.08631603385188587</v>
       </c>
       <c r="C2">
-        <v>0.2136373979745126</v>
+        <v>0.2336348552713851</v>
       </c>
       <c r="D2">
-        <v>0.05862372610272825</v>
+        <v>0.06595001910092338</v>
       </c>
       <c r="E2">
-        <v>0.2421233695922974</v>
+        <v>0.2568073579571337</v>
       </c>
       <c r="F2">
-        <v>0.2497673777755665</v>
+        <v>0.2509970670398742</v>
       </c>
       <c r="G2">
         <v>14</v>
@@ -467,19 +470,19 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>0.05401209062359413</v>
+        <v>0.1074344412111381</v>
       </c>
       <c r="C3">
-        <v>0.218968316772212</v>
+        <v>0.2042603668832133</v>
       </c>
       <c r="D3">
-        <v>0.0812101156932476</v>
+        <v>0.06469647195393771</v>
       </c>
       <c r="E3">
-        <v>0.284973885984747</v>
+        <v>0.2543550116548477</v>
       </c>
       <c r="F3">
-        <v>0.2912339447472185</v>
+        <v>0.2399663286002585</v>
       </c>
       <c r="G3">
         <v>13</v>
@@ -490,19 +493,19 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>0.04189333505767585</v>
+        <v>0.1080779521229239</v>
       </c>
       <c r="C4">
-        <v>0.253872083886316</v>
+        <v>0.3459062368002563</v>
       </c>
       <c r="D4">
-        <v>0.1125880168289207</v>
+        <v>0.1618177455352025</v>
       </c>
       <c r="E4">
-        <v>0.3355413787134467</v>
+        <v>0.4022657648063063</v>
       </c>
       <c r="F4">
-        <v>0.3477192681250979</v>
+        <v>0.4047044737270317</v>
       </c>
       <c r="G4">
         <v>12</v>
@@ -513,19 +516,19 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>-0.0001372508960761152</v>
+        <v>0.1348047727392753</v>
       </c>
       <c r="C5">
-        <v>0.2480625890636292</v>
+        <v>0.2404736632640445</v>
       </c>
       <c r="D5">
-        <v>0.08457529259376213</v>
+        <v>0.1336825235075403</v>
       </c>
       <c r="E5">
-        <v>0.2908183154372539</v>
+        <v>0.3656262073587455</v>
       </c>
       <c r="F5">
-        <v>0.3050127884721378</v>
+        <v>0.3564564719985849</v>
       </c>
       <c r="G5">
         <v>11</v>
@@ -536,19 +539,19 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>-0.01622121920471854</v>
+        <v>0.1094716894729319</v>
       </c>
       <c r="C6">
-        <v>0.2631740310991668</v>
+        <v>0.3502298540383924</v>
       </c>
       <c r="D6">
-        <v>0.09576598071011208</v>
+        <v>0.1684591240845271</v>
       </c>
       <c r="E6">
-        <v>0.3094607902628572</v>
+        <v>0.4104377225408589</v>
       </c>
       <c r="F6">
-        <v>0.325751870051125</v>
+        <v>0.416966656392023</v>
       </c>
       <c r="G6">
         <v>10</v>
@@ -559,22 +562,22 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>-0.0004128234107179345</v>
+        <v>0.05568622347126046</v>
       </c>
       <c r="C7">
-        <v>0.2807801228136732</v>
+        <v>0.2806577130811624</v>
       </c>
       <c r="D7">
-        <v>0.1280444348633058</v>
+        <v>0.1125884625785131</v>
       </c>
       <c r="E7">
-        <v>0.3578329706207993</v>
+        <v>0.3355420429372646</v>
       </c>
       <c r="F7">
-        <v>0.3865035254433785</v>
+        <v>0.3509607463531708</v>
       </c>
       <c r="G7">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -582,22 +585,22 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>-0.07389905011238217</v>
+        <v>-0.06433122593588818</v>
       </c>
       <c r="C8">
-        <v>0.2845418240675539</v>
+        <v>0.3695289678539498</v>
       </c>
       <c r="D8">
-        <v>0.1043297337820952</v>
+        <v>0.164134063030832</v>
       </c>
       <c r="E8">
-        <v>0.323001135883599</v>
+        <v>0.4051346233424539</v>
       </c>
       <c r="F8">
-        <v>0.3630769692036531</v>
+        <v>0.4381719613125665</v>
       </c>
       <c r="G8">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -605,18 +608,41 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>-0.5042297805489477</v>
+        <v>-0.06392244592618833</v>
       </c>
       <c r="C9">
-        <v>0.5042297805489477</v>
+        <v>0.1995501394904485</v>
       </c>
       <c r="D9">
-        <v>0.25424767159244</v>
+        <v>0.05897833981413506</v>
       </c>
       <c r="E9">
-        <v>0.5042297805489477</v>
+        <v>0.2428545651498754</v>
+      </c>
+      <c r="F9">
+        <v>0.2869466694029099</v>
       </c>
       <c r="G9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10">
+        <v>-0.06520887812495521</v>
+      </c>
+      <c r="C10">
+        <v>0.06520887812495521</v>
+      </c>
+      <c r="D10">
+        <v>0.004252197786315262</v>
+      </c>
+      <c r="E10">
+        <v>0.06520887812495521</v>
+      </c>
+      <c r="G10">
         <v>1</v>
       </c>
     </row>

--- a/3_Component_Results/GDP/Tables/naive_tbl/AVERAGE_1_9_qoq_forecast_error_table_first_eval.xlsx
+++ b/3_Component_Results/GDP/Tables/naive_tbl/AVERAGE_1_9_qoq_forecast_error_table_first_eval.xlsx
@@ -447,19 +447,19 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>0.08631603385188587</v>
+        <v>0.02638114373498337</v>
       </c>
       <c r="C2">
-        <v>0.2336348552713851</v>
+        <v>0.2136373979745126</v>
       </c>
       <c r="D2">
-        <v>0.06595001910092338</v>
+        <v>0.05862372610272825</v>
       </c>
       <c r="E2">
-        <v>0.2568073579571337</v>
+        <v>0.2421233695922974</v>
       </c>
       <c r="F2">
-        <v>0.2509970670398742</v>
+        <v>0.2497673777755665</v>
       </c>
       <c r="G2">
         <v>14</v>
@@ -470,19 +470,19 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>0.1074344412111381</v>
+        <v>0.05401209062359413</v>
       </c>
       <c r="C3">
-        <v>0.2042603668832133</v>
+        <v>0.218968316772212</v>
       </c>
       <c r="D3">
-        <v>0.06469647195393771</v>
+        <v>0.0812101156932476</v>
       </c>
       <c r="E3">
-        <v>0.2543550116548477</v>
+        <v>0.284973885984747</v>
       </c>
       <c r="F3">
-        <v>0.2399663286002585</v>
+        <v>0.2912339447472185</v>
       </c>
       <c r="G3">
         <v>13</v>
@@ -493,19 +493,19 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>0.1080779521229239</v>
+        <v>0.04189333505767585</v>
       </c>
       <c r="C4">
-        <v>0.3459062368002563</v>
+        <v>0.253872083886316</v>
       </c>
       <c r="D4">
-        <v>0.1618177455352025</v>
+        <v>0.1125880168289207</v>
       </c>
       <c r="E4">
-        <v>0.4022657648063063</v>
+        <v>0.3355413787134467</v>
       </c>
       <c r="F4">
-        <v>0.4047044737270317</v>
+        <v>0.3477192681250979</v>
       </c>
       <c r="G4">
         <v>12</v>
@@ -516,19 +516,19 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>0.1348047727392753</v>
+        <v>-0.0001372508960761152</v>
       </c>
       <c r="C5">
-        <v>0.2404736632640445</v>
+        <v>0.2480625890636292</v>
       </c>
       <c r="D5">
-        <v>0.1336825235075403</v>
+        <v>0.08457529259376213</v>
       </c>
       <c r="E5">
-        <v>0.3656262073587455</v>
+        <v>0.2908183154372539</v>
       </c>
       <c r="F5">
-        <v>0.3564564719985849</v>
+        <v>0.3050127884721378</v>
       </c>
       <c r="G5">
         <v>11</v>
@@ -539,19 +539,19 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>0.1094716894729319</v>
+        <v>-0.01622121920471854</v>
       </c>
       <c r="C6">
-        <v>0.3502298540383924</v>
+        <v>0.2631740310991668</v>
       </c>
       <c r="D6">
-        <v>0.1684591240845271</v>
+        <v>0.09576598071011208</v>
       </c>
       <c r="E6">
-        <v>0.4104377225408589</v>
+        <v>0.3094607902628572</v>
       </c>
       <c r="F6">
-        <v>0.416966656392023</v>
+        <v>0.325751870051125</v>
       </c>
       <c r="G6">
         <v>10</v>
@@ -562,19 +562,19 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>0.05568622347126046</v>
+        <v>-0.03331298675845948</v>
       </c>
       <c r="C7">
-        <v>0.2806577130811624</v>
+        <v>0.2786008952859811</v>
       </c>
       <c r="D7">
-        <v>0.1125884625785131</v>
+        <v>0.1208052536752846</v>
       </c>
       <c r="E7">
-        <v>0.3355420429372646</v>
+        <v>0.3475705017335111</v>
       </c>
       <c r="F7">
-        <v>0.3509607463531708</v>
+        <v>0.3669569946357198</v>
       </c>
       <c r="G7">
         <v>9</v>
@@ -585,19 +585,19 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>-0.06433122593588818</v>
+        <v>-0.123504592765017</v>
       </c>
       <c r="C8">
-        <v>0.3695289678539498</v>
+        <v>0.2639331087351315</v>
       </c>
       <c r="D8">
-        <v>0.164134063030832</v>
+        <v>0.08609388686166163</v>
       </c>
       <c r="E8">
-        <v>0.4051346233424539</v>
+        <v>0.2934175980776573</v>
       </c>
       <c r="F8">
-        <v>0.4381719613125665</v>
+        <v>0.2915623482432715</v>
       </c>
       <c r="G8">
         <v>6</v>
@@ -608,19 +608,19 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>-0.06392244592618833</v>
+        <v>-0.2310012636481934</v>
       </c>
       <c r="C9">
-        <v>0.1995501394904485</v>
+        <v>0.2891182804648226</v>
       </c>
       <c r="D9">
-        <v>0.05897833981413506</v>
+        <v>0.1126651299999655</v>
       </c>
       <c r="E9">
-        <v>0.2428545651498754</v>
+        <v>0.3356562676309881</v>
       </c>
       <c r="F9">
-        <v>0.2869466694029099</v>
+        <v>0.2982537833613431</v>
       </c>
       <c r="G9">
         <v>3</v>
@@ -631,16 +631,16 @@
         <v>14</v>
       </c>
       <c r="B10">
-        <v>-0.06520887812495521</v>
+        <v>-0.1742297805489477</v>
       </c>
       <c r="C10">
-        <v>0.06520887812495521</v>
+        <v>0.1742297805489477</v>
       </c>
       <c r="D10">
-        <v>0.004252197786315262</v>
+        <v>0.03035601643013447</v>
       </c>
       <c r="E10">
-        <v>0.06520887812495521</v>
+        <v>0.1742297805489477</v>
       </c>
       <c r="G10">
         <v>1</v>

--- a/3_Component_Results/GDP/Tables/naive_tbl/AVERAGE_1_9_qoq_forecast_error_table_first_eval.xlsx
+++ b/3_Component_Results/GDP/Tables/naive_tbl/AVERAGE_1_9_qoq_forecast_error_table_first_eval.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>ME</t>
   </si>
@@ -59,6 +59,9 @@
   </si>
   <si>
     <t>Q8</t>
+  </si>
+  <si>
+    <t>Q9</t>
   </si>
 </sst>
 </file>
@@ -416,7 +419,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -447,22 +450,22 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>0.02638114373498337</v>
+        <v>0.2134401944279581</v>
       </c>
       <c r="C2">
-        <v>0.2136373979745126</v>
+        <v>1.107048576932442</v>
       </c>
       <c r="D2">
-        <v>0.05862372610272825</v>
+        <v>5.469072502632633</v>
       </c>
       <c r="E2">
-        <v>0.2421233695922974</v>
+        <v>2.338604819680451</v>
       </c>
       <c r="F2">
-        <v>0.2497673777755665</v>
+        <v>2.352017453539809</v>
       </c>
       <c r="G2">
-        <v>14</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -470,22 +473,22 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>0.05401209062359413</v>
+        <v>0.2381905613280194</v>
       </c>
       <c r="C3">
-        <v>0.218968316772212</v>
+        <v>1.157832168035669</v>
       </c>
       <c r="D3">
-        <v>0.0812101156932476</v>
+        <v>5.127790050230712</v>
       </c>
       <c r="E3">
-        <v>0.284973885984747</v>
+        <v>2.264462419699367</v>
       </c>
       <c r="F3">
-        <v>0.2912339447472185</v>
+        <v>2.27476289563374</v>
       </c>
       <c r="G3">
-        <v>13</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -493,22 +496,22 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>0.04189333505767585</v>
+        <v>0.2567033173151257</v>
       </c>
       <c r="C4">
-        <v>0.253872083886316</v>
+        <v>1.116656496429176</v>
       </c>
       <c r="D4">
-        <v>0.1125880168289207</v>
+        <v>4.777664275584832</v>
       </c>
       <c r="E4">
-        <v>0.3355413787134467</v>
+        <v>2.185786877896569</v>
       </c>
       <c r="F4">
-        <v>0.3477192681250979</v>
+        <v>2.193155149364095</v>
       </c>
       <c r="G4">
-        <v>12</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -516,22 +519,22 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>-0.0001372508960761152</v>
+        <v>0.2256811907542642</v>
       </c>
       <c r="C5">
-        <v>0.2480625890636292</v>
+        <v>1.135244597037652</v>
       </c>
       <c r="D5">
-        <v>0.08457529259376213</v>
+        <v>5.196387630754981</v>
       </c>
       <c r="E5">
-        <v>0.2908183154372539</v>
+        <v>2.279558648237632</v>
       </c>
       <c r="F5">
-        <v>0.3050127884721378</v>
+        <v>2.292364153068935</v>
       </c>
       <c r="G5">
-        <v>11</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -539,22 +542,22 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>-0.01622121920471854</v>
+        <v>0.2532833917168094</v>
       </c>
       <c r="C6">
-        <v>0.2631740310991668</v>
+        <v>1.231919099044784</v>
       </c>
       <c r="D6">
-        <v>0.09576598071011208</v>
+        <v>5.524199383542229</v>
       </c>
       <c r="E6">
-        <v>0.3094607902628572</v>
+        <v>2.350361543155059</v>
       </c>
       <c r="F6">
-        <v>0.325751870051125</v>
+        <v>2.361936404502555</v>
       </c>
       <c r="G6">
-        <v>10</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -562,22 +565,22 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>-0.03331298675845948</v>
+        <v>0.1912077111841825</v>
       </c>
       <c r="C7">
-        <v>0.2786008952859811</v>
+        <v>1.218487072762304</v>
       </c>
       <c r="D7">
-        <v>0.1208052536752846</v>
+        <v>5.000023379858966</v>
       </c>
       <c r="E7">
-        <v>0.3475705017335111</v>
+        <v>2.236073205389074</v>
       </c>
       <c r="F7">
-        <v>0.3669569946357198</v>
+        <v>2.25250131378905</v>
       </c>
       <c r="G7">
-        <v>9</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -585,22 +588,22 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>-0.123504592765017</v>
+        <v>0.1745139725577196</v>
       </c>
       <c r="C8">
-        <v>0.2639331087351315</v>
+        <v>1.207597693525557</v>
       </c>
       <c r="D8">
-        <v>0.08609388686166163</v>
+        <v>5.537112892574842</v>
       </c>
       <c r="E8">
-        <v>0.2934175980776573</v>
+        <v>2.353107072059162</v>
       </c>
       <c r="F8">
-        <v>0.2915623482432715</v>
+        <v>2.373143290831724</v>
       </c>
       <c r="G8">
-        <v>6</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -608,22 +611,22 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>-0.2310012636481934</v>
+        <v>0.2127461743163057</v>
       </c>
       <c r="C9">
-        <v>0.2891182804648226</v>
+        <v>1.208769835132661</v>
       </c>
       <c r="D9">
-        <v>0.1126651299999655</v>
+        <v>5.244261527796105</v>
       </c>
       <c r="E9">
-        <v>0.3356562676309881</v>
+        <v>2.290035267806176</v>
       </c>
       <c r="F9">
-        <v>0.2982537833613431</v>
+        <v>2.306492485061966</v>
       </c>
       <c r="G9">
-        <v>3</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -631,19 +634,45 @@
         <v>14</v>
       </c>
       <c r="B10">
-        <v>-0.1742297805489477</v>
+        <v>0.2033757677206456</v>
       </c>
       <c r="C10">
-        <v>0.1742297805489477</v>
+        <v>1.265673175597562</v>
       </c>
       <c r="D10">
-        <v>0.03035601643013447</v>
+        <v>5.739404322570661</v>
       </c>
       <c r="E10">
-        <v>0.1742297805489477</v>
+        <v>2.395705391439161</v>
+      </c>
+      <c r="F10">
+        <v>2.415307496178391</v>
       </c>
       <c r="G10">
-        <v>1</v>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11">
+        <v>0.1762107366466173</v>
+      </c>
+      <c r="C11">
+        <v>1.24023323203181</v>
+      </c>
+      <c r="D11">
+        <v>5.544438103667789</v>
+      </c>
+      <c r="E11">
+        <v>2.354663055230576</v>
+      </c>
+      <c r="F11">
+        <v>2.376522828646756</v>
+      </c>
+      <c r="G11">
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/3_Component_Results/GDP/Tables/naive_tbl/AVERAGE_1_9_qoq_forecast_error_table_first_eval.xlsx
+++ b/3_Component_Results/GDP/Tables/naive_tbl/AVERAGE_1_9_qoq_forecast_error_table_first_eval.xlsx
@@ -450,22 +450,22 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>0.2134401944279581</v>
+        <v>0.2735553655122697</v>
       </c>
       <c r="C2">
-        <v>1.107048576932442</v>
+        <v>0.705428612614435</v>
       </c>
       <c r="D2">
-        <v>5.469072502632633</v>
+        <v>2.297651370956758</v>
       </c>
       <c r="E2">
-        <v>2.338604819680451</v>
+        <v>1.515800570971247</v>
       </c>
       <c r="F2">
-        <v>2.352017453539809</v>
+        <v>1.508984402319302</v>
       </c>
       <c r="G2">
-        <v>51</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -473,22 +473,22 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>0.2381905613280194</v>
+        <v>0.2729092050941885</v>
       </c>
       <c r="C3">
-        <v>1.157832168035669</v>
+        <v>1.324535644936742</v>
       </c>
       <c r="D3">
-        <v>5.127790050230712</v>
+        <v>6.788792271302114</v>
       </c>
       <c r="E3">
-        <v>2.264462419699367</v>
+        <v>2.605531091985301</v>
       </c>
       <c r="F3">
-        <v>2.27476289563374</v>
+        <v>2.623389154891797</v>
       </c>
       <c r="G3">
-        <v>50</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -496,22 +496,22 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>0.2567033173151257</v>
+        <v>0.313763359840497</v>
       </c>
       <c r="C4">
-        <v>1.116656496429176</v>
+        <v>1.409704594726758</v>
       </c>
       <c r="D4">
-        <v>4.777664275584832</v>
+        <v>6.400624557163932</v>
       </c>
       <c r="E4">
-        <v>2.185786877896569</v>
+        <v>2.529945564071277</v>
       </c>
       <c r="F4">
-        <v>2.193155149364095</v>
+        <v>2.542394815147271</v>
       </c>
       <c r="G4">
-        <v>49</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -519,22 +519,22 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>0.2256811907542642</v>
+        <v>0.3440745136685818</v>
       </c>
       <c r="C5">
-        <v>1.135244597037652</v>
+        <v>1.359304277531268</v>
       </c>
       <c r="D5">
-        <v>5.196387630754981</v>
+        <v>5.991552565471967</v>
       </c>
       <c r="E5">
-        <v>2.279558648237632</v>
+        <v>2.447764810081223</v>
       </c>
       <c r="F5">
-        <v>2.292364153068935</v>
+        <v>2.455142007288035</v>
       </c>
       <c r="G5">
-        <v>48</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -542,22 +542,22 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>0.2532833917168094</v>
+        <v>0.3028255374049251</v>
       </c>
       <c r="C6">
-        <v>1.231919099044784</v>
+        <v>1.379900412721921</v>
       </c>
       <c r="D6">
-        <v>5.524199383542229</v>
+        <v>6.551300714805526</v>
       </c>
       <c r="E6">
-        <v>2.350361543155059</v>
+        <v>2.559550881464466</v>
       </c>
       <c r="F6">
-        <v>2.361936404502555</v>
+        <v>2.575690416655235</v>
       </c>
       <c r="G6">
-        <v>47</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -565,22 +565,22 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>0.1912077111841825</v>
+        <v>0.3261224757496547</v>
       </c>
       <c r="C7">
-        <v>1.218487072762304</v>
+        <v>1.493742090381438</v>
       </c>
       <c r="D7">
-        <v>5.000023379858966</v>
+        <v>6.991343546469828</v>
       </c>
       <c r="E7">
-        <v>2.236073205389074</v>
+        <v>2.644114889045071</v>
       </c>
       <c r="F7">
-        <v>2.25250131378905</v>
+        <v>2.66011979711121</v>
       </c>
       <c r="G7">
-        <v>46</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -588,22 +588,22 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>0.1745139725577196</v>
+        <v>0.2710005396799194</v>
       </c>
       <c r="C8">
-        <v>1.207597693525557</v>
+        <v>1.468954151564265</v>
       </c>
       <c r="D8">
-        <v>5.537112892574842</v>
+        <v>6.346593684193093</v>
       </c>
       <c r="E8">
-        <v>2.353107072059162</v>
+        <v>2.519244665409276</v>
       </c>
       <c r="F8">
-        <v>2.373143290831724</v>
+        <v>2.540154585288666</v>
       </c>
       <c r="G8">
-        <v>45</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -611,22 +611,22 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>0.2127461743163057</v>
+        <v>0.2060309553896736</v>
       </c>
       <c r="C9">
-        <v>1.208769835132661</v>
+        <v>1.440504172134808</v>
       </c>
       <c r="D9">
-        <v>5.244261527796105</v>
+        <v>7.038220111909374</v>
       </c>
       <c r="E9">
-        <v>2.290035267806176</v>
+        <v>2.652964400799485</v>
       </c>
       <c r="F9">
-        <v>2.306492485061966</v>
+        <v>2.683566533259154</v>
       </c>
       <c r="G9">
-        <v>44</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -634,22 +634,22 @@
         <v>14</v>
       </c>
       <c r="B10">
-        <v>0.2033757677206456</v>
+        <v>0.2191995983370183</v>
       </c>
       <c r="C10">
-        <v>1.265673175597562</v>
+        <v>1.401612898746454</v>
       </c>
       <c r="D10">
-        <v>5.739404322570661</v>
+        <v>6.624809008690754</v>
       </c>
       <c r="E10">
-        <v>2.395705391439161</v>
+        <v>2.573870433547647</v>
       </c>
       <c r="F10">
-        <v>2.415307496178391</v>
+        <v>2.603085922297586</v>
       </c>
       <c r="G10">
-        <v>43</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -657,22 +657,22 @@
         <v>15</v>
       </c>
       <c r="B11">
-        <v>0.1762107366466173</v>
+        <v>0.2232300813796648</v>
       </c>
       <c r="C11">
-        <v>1.24023323203181</v>
+        <v>1.4712938842328</v>
       </c>
       <c r="D11">
-        <v>5.544438103667789</v>
+        <v>7.299867736119196</v>
       </c>
       <c r="E11">
-        <v>2.354663055230576</v>
+        <v>2.70182674058112</v>
       </c>
       <c r="F11">
-        <v>2.376522828646756</v>
+        <v>2.7343371580653</v>
       </c>
       <c r="G11">
-        <v>42</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/3_Component_Results/GDP/Tables/naive_tbl/AVERAGE_1_9_qoq_forecast_error_table_first_eval.xlsx
+++ b/3_Component_Results/GDP/Tables/naive_tbl/AVERAGE_1_9_qoq_forecast_error_table_first_eval.xlsx
@@ -450,22 +450,22 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>0.2735553655122697</v>
+        <v>0.04068733621174444</v>
       </c>
       <c r="C2">
-        <v>0.705428612614435</v>
+        <v>1.347492170625331</v>
       </c>
       <c r="D2">
-        <v>2.297651370956758</v>
+        <v>10.12087998327202</v>
       </c>
       <c r="E2">
-        <v>1.515800570971247</v>
+        <v>3.181333051296583</v>
       </c>
       <c r="F2">
-        <v>1.508984402319302</v>
+        <v>3.212726103237388</v>
       </c>
       <c r="G2">
-        <v>42</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -473,22 +473,22 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>0.2729092050941885</v>
+        <v>0.02310952642605121</v>
       </c>
       <c r="C3">
-        <v>1.324535644936742</v>
+        <v>1.506637317013713</v>
       </c>
       <c r="D3">
-        <v>6.788792271302114</v>
+        <v>9.664068608552252</v>
       </c>
       <c r="E3">
-        <v>2.605531091985301</v>
+        <v>3.108708511351981</v>
       </c>
       <c r="F3">
-        <v>2.623389154891797</v>
+        <v>3.140183043920715</v>
       </c>
       <c r="G3">
-        <v>41</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -496,22 +496,22 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>0.313763359840497</v>
+        <v>0.04953615400542137</v>
       </c>
       <c r="C4">
-        <v>1.409704594726758</v>
+        <v>1.37882258673296</v>
       </c>
       <c r="D4">
-        <v>6.400624557163932</v>
+        <v>6.90966373676957</v>
       </c>
       <c r="E4">
-        <v>2.529945564071277</v>
+        <v>2.628623924560067</v>
       </c>
       <c r="F4">
-        <v>2.542394815147271</v>
+        <v>2.65539264753735</v>
       </c>
       <c r="G4">
-        <v>40</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -519,22 +519,22 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>0.3440745136685818</v>
+        <v>0.06730071474157288</v>
       </c>
       <c r="C5">
-        <v>1.359304277531268</v>
+        <v>1.432547271739592</v>
       </c>
       <c r="D5">
-        <v>5.991552565471967</v>
+        <v>8.491317398801943</v>
       </c>
       <c r="E5">
-        <v>2.447764810081223</v>
+        <v>2.913986513146885</v>
       </c>
       <c r="F5">
-        <v>2.455142007288035</v>
+        <v>2.944037698520868</v>
       </c>
       <c r="G5">
-        <v>39</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -542,22 +542,22 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>0.3028255374049251</v>
+        <v>0.03756714743281693</v>
       </c>
       <c r="C6">
-        <v>1.379900412721921</v>
+        <v>1.591018637028787</v>
       </c>
       <c r="D6">
-        <v>6.551300714805526</v>
+        <v>10.0026066766869</v>
       </c>
       <c r="E6">
-        <v>2.559550881464466</v>
+        <v>3.162689785085931</v>
       </c>
       <c r="F6">
-        <v>2.575690416655235</v>
+        <v>3.196656484066325</v>
       </c>
       <c r="G6">
-        <v>38</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -565,22 +565,22 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>0.3261224757496547</v>
+        <v>0.05601094792970936</v>
       </c>
       <c r="C7">
-        <v>1.493742090381438</v>
+        <v>1.592722824606551</v>
       </c>
       <c r="D7">
-        <v>6.991343546469828</v>
+        <v>8.729723085726032</v>
       </c>
       <c r="E7">
-        <v>2.644114889045071</v>
+        <v>2.954610479526198</v>
       </c>
       <c r="F7">
-        <v>2.66011979711121</v>
+        <v>2.986722281975306</v>
       </c>
       <c r="G7">
-        <v>37</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -588,22 +588,22 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>0.2710005396799194</v>
+        <v>0.0002899658432591508</v>
       </c>
       <c r="C8">
-        <v>1.468954151564265</v>
+        <v>1.568355227381864</v>
       </c>
       <c r="D8">
-        <v>6.346593684193093</v>
+        <v>8.737285131131101</v>
       </c>
       <c r="E8">
-        <v>2.519244665409276</v>
+        <v>2.955889905109983</v>
       </c>
       <c r="F8">
-        <v>2.540154585288666</v>
+        <v>2.989290836839259</v>
       </c>
       <c r="G8">
-        <v>36</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -611,22 +611,22 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>0.2060309553896736</v>
+        <v>-0.02005145808999941</v>
       </c>
       <c r="C9">
-        <v>1.440504172134808</v>
+        <v>1.594452076336724</v>
       </c>
       <c r="D9">
-        <v>7.038220111909374</v>
+        <v>9.27842226268784</v>
       </c>
       <c r="E9">
-        <v>2.652964400799485</v>
+        <v>3.046050272514858</v>
       </c>
       <c r="F9">
-        <v>2.683566533259154</v>
+        <v>3.081199135626279</v>
       </c>
       <c r="G9">
-        <v>35</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -634,22 +634,22 @@
         <v>14</v>
       </c>
       <c r="B10">
-        <v>0.2191995983370183</v>
+        <v>0.01513648954317695</v>
       </c>
       <c r="C10">
-        <v>1.401612898746454</v>
+        <v>1.65609166469574</v>
       </c>
       <c r="D10">
-        <v>6.624809008690754</v>
+        <v>9.395576928003257</v>
       </c>
       <c r="E10">
-        <v>2.573870433547647</v>
+        <v>3.065220534970242</v>
       </c>
       <c r="F10">
-        <v>2.603085922297586</v>
+        <v>3.101458781312453</v>
       </c>
       <c r="G10">
-        <v>34</v>
+        <v>43</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -657,22 +657,22 @@
         <v>15</v>
       </c>
       <c r="B11">
-        <v>0.2232300813796648</v>
+        <v>0.004535327475175432</v>
       </c>
       <c r="C11">
-        <v>1.4712938842328</v>
+        <v>1.624160030100705</v>
       </c>
       <c r="D11">
-        <v>7.299867736119196</v>
+        <v>9.43613802475137</v>
       </c>
       <c r="E11">
-        <v>2.70182674058112</v>
+        <v>3.071829751915195</v>
       </c>
       <c r="F11">
-        <v>2.7343371580653</v>
+        <v>3.109062022827647</v>
       </c>
       <c r="G11">
-        <v>33</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/3_Component_Results/GDP/Tables/naive_tbl/AVERAGE_1_9_qoq_forecast_error_table_first_eval.xlsx
+++ b/3_Component_Results/GDP/Tables/naive_tbl/AVERAGE_1_9_qoq_forecast_error_table_first_eval.xlsx
@@ -565,22 +565,22 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>0.05601094792970936</v>
+        <v>0.002699318017291303</v>
       </c>
       <c r="C7">
-        <v>1.592722824606551</v>
+        <v>1.722154581447348</v>
       </c>
       <c r="D7">
-        <v>8.729723085726032</v>
+        <v>9.984749238055725</v>
       </c>
       <c r="E7">
-        <v>2.954610479526198</v>
+        <v>3.159865382900943</v>
       </c>
       <c r="F7">
-        <v>2.986722281975306</v>
+        <v>3.202280412819196</v>
       </c>
       <c r="G7">
-        <v>46</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -588,22 +588,22 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>0.0002899658432591508</v>
+        <v>0.05857075713622879</v>
       </c>
       <c r="C8">
-        <v>1.568355227381864</v>
+        <v>1.776051892746738</v>
       </c>
       <c r="D8">
-        <v>8.737285131131101</v>
+        <v>10.39296682505982</v>
       </c>
       <c r="E8">
-        <v>2.955889905109983</v>
+        <v>3.223812467414911</v>
       </c>
       <c r="F8">
-        <v>2.989290836839259</v>
+        <v>3.267741501677706</v>
       </c>
       <c r="G8">
-        <v>45</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -611,22 +611,22 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>-0.02005145808999941</v>
+        <v>0.1181852110595209</v>
       </c>
       <c r="C9">
-        <v>1.594452076336724</v>
+        <v>2.413718652824218</v>
       </c>
       <c r="D9">
-        <v>9.27842226268784</v>
+        <v>17.70046678524174</v>
       </c>
       <c r="E9">
-        <v>3.046050272514858</v>
+        <v>4.207192268632578</v>
       </c>
       <c r="F9">
-        <v>3.081199135626279</v>
+        <v>4.314784746857515</v>
       </c>
       <c r="G9">
-        <v>44</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -634,22 +634,22 @@
         <v>14</v>
       </c>
       <c r="B10">
-        <v>0.01513648954317695</v>
+        <v>-0.4634037723406197</v>
       </c>
       <c r="C10">
-        <v>1.65609166469574</v>
+        <v>2.724359023810559</v>
       </c>
       <c r="D10">
-        <v>9.395576928003257</v>
+        <v>19.81001332354748</v>
       </c>
       <c r="E10">
-        <v>3.065220534970242</v>
+        <v>4.450844113597721</v>
       </c>
       <c r="F10">
-        <v>3.101458781312453</v>
+        <v>4.607408106112586</v>
       </c>
       <c r="G10">
-        <v>43</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -657,22 +657,22 @@
         <v>15</v>
       </c>
       <c r="B11">
-        <v>0.004535327475175432</v>
+        <v>-1.322354230397357</v>
       </c>
       <c r="C11">
-        <v>1.624160030100705</v>
+        <v>2.379903522002908</v>
       </c>
       <c r="D11">
-        <v>9.43613802475137</v>
+        <v>17.9112548335869</v>
       </c>
       <c r="E11">
-        <v>3.071829751915195</v>
+        <v>4.232169045960582</v>
       </c>
       <c r="F11">
-        <v>3.109062022827647</v>
+        <v>4.494807298836224</v>
       </c>
       <c r="G11">
-        <v>42</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
